--- a/Game/Map/SideMap.xlsx
+++ b/Game/Map/SideMap.xlsx
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS10" sqref="AS10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC9" sqref="BC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -1219,43 +1219,43 @@
         <v>0</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
         <v>5</v>
       </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
       <c r="AV4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH4">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1416,34 +1416,34 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5">
         <v>0</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1461,28 +1461,28 @@
         <v>0</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH5">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1628,25 +1628,25 @@
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH6">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1825,37 +1825,37 @@
         <v>0</v>
       </c>
       <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>5</v>
+      </c>
+      <c r="AI7">
         <v>3</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ7">
         <v>0</v>
@@ -1882,25 +1882,25 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT7">
         <v>0</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX7">
         <v>0</v>
       </c>
       <c r="AY7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH7">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="BK7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -1962,157 +1962,157 @@
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>2</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>6</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AR8">
-        <v>1</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
       <c r="AY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
         <v>0</v>
@@ -2121,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8">
         <v>1</v>
@@ -2142,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -2216,118 +2216,118 @@
         <v>0</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
         <v>5</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>5</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>3</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -2386,31 +2386,31 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2419,34 +2419,34 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10">
         <v>0</v>
@@ -2521,31 +2521,31 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10">
         <v>0</v>

--- a/Game/Map/SideMap.xlsx
+++ b/Game/Map/SideMap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waru5\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B44A46-9B68-4AA0-90B3-56C900812462}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="7200" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -72,7 +73,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -83,7 +84,31 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -104,7 +129,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -118,7 +143,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -132,7 +157,87 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -153,38 +258,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -463,20 +544,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC9" sqref="BC9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="59" width="4.125" customWidth="1"/>
-    <col min="60" max="70" width="4.75" customWidth="1"/>
+    <col min="1" max="5" width="4.875" customWidth="1"/>
+    <col min="6" max="65" width="4.125" customWidth="1"/>
+    <col min="66" max="76" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
@@ -670,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="BM1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BN1">
         <v>0</v>
@@ -687,8 +769,26 @@
       <c r="BR1">
         <v>0</v>
       </c>
+      <c r="BS1">
+        <v>0</v>
+      </c>
+      <c r="BT1">
+        <v>0</v>
+      </c>
+      <c r="BU1">
+        <v>0</v>
+      </c>
+      <c r="BV1">
+        <v>0</v>
+      </c>
+      <c r="BW1">
+        <v>0</v>
+      </c>
+      <c r="BX1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -899,8 +999,26 @@
       <c r="BR2">
         <v>0</v>
       </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -944,29 +1062,29 @@
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
         <v>0</v>
       </c>
@@ -1016,26 +1134,26 @@
         <v>0</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>3</v>
       </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
       <c r="AT3">
         <v>0</v>
       </c>
@@ -1049,29 +1167,29 @@
         <v>0</v>
       </c>
       <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
         <v>5</v>
       </c>
-      <c r="AY3">
+      <c r="BE3">
         <v>3</v>
       </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
       <c r="BF3">
         <v>0</v>
       </c>
@@ -1111,8 +1229,26 @@
       <c r="BR3">
         <v>0</v>
       </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1252,29 +1388,29 @@
         <v>0</v>
       </c>
       <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
         <v>5</v>
       </c>
-      <c r="AV4">
+      <c r="BB4">
         <v>3</v>
       </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
       <c r="BC4">
         <v>0</v>
       </c>
@@ -1288,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH4">
         <v>0</v>
@@ -1323,8 +1459,26 @@
       <c r="BR4">
         <v>0</v>
       </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1353,26 +1507,26 @@
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>5</v>
       </c>
-      <c r="K5">
+      <c r="P5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -1428,55 +1582,55 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
         <v>5</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
         <v>5</v>
       </c>
-      <c r="AM5">
+      <c r="AS5">
         <v>5</v>
       </c>
-      <c r="AN5">
+      <c r="AT5">
         <v>5</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
       <c r="AU5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>1</v>
@@ -1485,22 +1639,22 @@
         <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BH5">
         <v>0</v>
@@ -1535,8 +1689,26 @@
       <c r="BR5">
         <v>0</v>
       </c>
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1586,23 +1758,23 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>2</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
         <v>0</v>
       </c>
@@ -1619,65 +1791,65 @@
         <v>0</v>
       </c>
       <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>2</v>
       </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>5</v>
       </c>
-      <c r="AF6">
+      <c r="AK6">
         <v>3</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
         <v>5</v>
       </c>
-      <c r="AI6">
+      <c r="AO6">
         <v>3</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>5</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
         <v>5</v>
       </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
       <c r="AV6">
         <v>0</v>
       </c>
@@ -1712,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <v>0</v>
@@ -1747,8 +1919,26 @@
       <c r="BR6">
         <v>0</v>
       </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1771,47 +1961,47 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
       <c r="V7">
         <v>0</v>
       </c>
@@ -1849,542 +2039,596 @@
         <v>0</v>
       </c>
       <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
         <v>5</v>
       </c>
-      <c r="AI7">
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
         <v>3</v>
       </c>
-      <c r="AJ7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
         <v>5</v>
       </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>3</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>2</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>6</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>0</v>
+      </c>
+      <c r="BW7">
+        <v>0</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:76" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>0</v>
+      </c>
+      <c r="BD8">
+        <v>2</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
+      </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>0</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:76" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
         <v>5</v>
       </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>2</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>6</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>8</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-      <c r="Z8">
-        <v>1</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
-      </c>
-      <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>1</v>
-      </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <v>1</v>
-      </c>
-      <c r="AM8">
-        <v>1</v>
-      </c>
-      <c r="AN8">
-        <v>1</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
-      </c>
-      <c r="AQ8">
-        <v>1</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>2</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>1</v>
-      </c>
-      <c r="BF8">
-        <v>1</v>
-      </c>
-      <c r="BG8">
-        <v>1</v>
-      </c>
-      <c r="BH8">
-        <v>1</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>5</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2521,22 +2765,22 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
         <v>1</v>
@@ -2548,22 +2792,22 @@
         <v>1</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10">
         <v>0</v>
@@ -2593,63 +2837,120 @@
         <v>0</v>
       </c>
       <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>0</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BR10">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+  <conditionalFormatting sqref="F1:BX1 F8:AK8 G7:AK7 F10:AK10 G9:AK9 F2:AK6 AL2:BX10">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>6</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>3</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BR10">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK1:BR10">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="F1:BX1 F8:AK8 G7:AK7 F10:AK10 G9:AK9 F2:AK6 AL2:BX10">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ1:BX10">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:BY1 F8:AK8 G7:AK7 F10:AK10 G9:AK9 F2:AK6 AL2:BY10">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A10 B1:E6 B7:F7 B8:E8 B9:F9 B10:E10">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>6</formula>
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+      <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BS10">
+  <conditionalFormatting sqref="A1:A10 B1:E6 B7:F7 B8:E8 B9:F9 B10:E10">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A10 B1:E6 B7:F7 B8:E8 B9:F9 B10:E10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
